--- a/biology/Zoologie/Aplopeltura_boa/Aplopeltura_boa.xlsx
+++ b/biology/Zoologie/Aplopeltura_boa/Aplopeltura_boa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplopeltura boa, unique représentant du genre Aplopeltura, est une espèce de serpents de la famille des Pareatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplopeltura boa, unique représentant du genre Aplopeltura, est une espèce de serpents de la famille des Pareatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Indonésie sur les îles de Bornéo, de Nias, de Sumatra, de Bangka, de Natuna et de Java ;
 en Malaisie péninsulaire et en Malaisie orientale ;
 en Thaïlande ;
@@ -547,7 +561,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boie, 1828 : Auszüge aus Briefen von Heinr. Boie zu Java an Hn. Schlegel, Conservator anim. vertebr. am Königl. niederl. Museum. lsis von Oken, Jena, vol. 21, n. 10, p. 1025-1035 (texte intégral).
 Duméril, 1853 : Prodrome de la classification des reptiles ophidiens. Mémoires de l'Académie des sciences, Paris, vol. 23, p. 399-536 (texte intégral).</t>
